--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>HRM system allows user to add new employee information into database, adding information includes profile, detail information and extend information</t>
+  </si>
+  <si>
+    <t>Remove Personal Information</t>
+  </si>
+  <si>
+    <t>HRM system allows System management remove employee information when retirement and in term of time.</t>
+  </si>
+  <si>
+    <t>Sort and Filter Personal</t>
+  </si>
+  <si>
+    <t>HRM system allows sort and view by Filter base on employee 's name</t>
   </si>
 </sst>
 </file>
@@ -664,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,8 +907,12 @@
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,8 +922,12 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Requirements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
@@ -269,13 +269,75 @@
   </si>
   <si>
     <t>HRM system allows sort and view by Filter base on employee 's name</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.BR1</t>
+  </si>
+  <si>
+    <t>Supply staff information or lecture information for
+ report. System give necessary information 
+when Staff  of  human resource department 
+HRD) choose it.</t>
+  </si>
+  <si>
+    <t>Loc Phan</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.BR1</t>
+  </si>
+  <si>
+    <t>HRD will control all information about staff, lecture
+to manage, fix.</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR4.BR1</t>
+  </si>
+  <si>
+    <t>HRD can choose subject to view.</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR5.1.BR1</t>
+  </si>
+  <si>
+    <t>User can choose subject to seach</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR6.BR1</t>
+  </si>
+  <si>
+    <t>System must logged information which user added.</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR6.BR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System must update ID Code (staff, lecture) </t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR8.BR1</t>
+  </si>
+  <si>
+    <t>System notice for user about information before
+ 2-3 weeks</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR9.BR1</t>
+  </si>
+  <si>
+    <t>System must logged information which user deleted.</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR10.BR1</t>
+  </si>
+  <si>
+    <t>User can choose type sort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +367,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -356,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +440,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1076,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,104 +1196,158 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="B7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="B12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Business Rule" sheetId="2" r:id="rId2"/>
-    <sheet name="Use case" sheetId="4" r:id="rId3"/>
+    <sheet name="Use Case" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>Description</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>User can choose type sort</t>
+  </si>
+  <si>
+    <t>Quyet Nguyen</t>
   </si>
 </sst>
 </file>
@@ -438,12 +441,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,32 +761,32 @@
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="121.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -985,7 +988,9 @@
       <c r="D15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1000,7 +1005,9 @@
       <c r="D16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1148,38 +1155,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1196,156 +1203,156 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1466,7 +1473,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,24 +1484,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Description</t>
   </si>
@@ -118,9 +118,6 @@
     <t>View personal information</t>
   </si>
   <si>
-    <t>HRM system allows user to view employee information, including summy of all profiles, detail information.</t>
-  </si>
-  <si>
     <t>HRM.FE7.FR4</t>
   </si>
   <si>
@@ -133,57 +130,9 @@
     <t>HRM.FE7.FR5</t>
   </si>
   <si>
-    <t>HRM.FE7.FR6</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR7</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR8</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR9</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR10</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR11</t>
-  </si>
-  <si>
     <t>HRM.FE7.FR12</t>
   </si>
   <si>
-    <t>HRM.FE7.FR13</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR14</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR15</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR16</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR17</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR18</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR19</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR20</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR21</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR22</t>
-  </si>
-  <si>
     <t>Advanced search</t>
   </si>
   <si>
@@ -250,12 +199,6 @@
     <t>Actions/ Brief Description</t>
   </si>
   <si>
-    <t>HRM.FE7.FR4.1</t>
-  </si>
-  <si>
-    <t>HRM.FE7.FR5.1</t>
-  </si>
-  <si>
     <t>HRM system allows user to add new employee information into database, adding information includes profile, detail information and extend information</t>
   </si>
   <si>
@@ -263,12 +206,6 @@
   </si>
   <si>
     <t>HRM system allows System management remove employee information when retirement and in term of time.</t>
-  </si>
-  <si>
-    <t>Sort and Filter Personal</t>
-  </si>
-  <si>
-    <t>HRM system allows sort and view by Filter base on employee 's name</t>
   </si>
   <si>
     <t>HRM.FE7.FR2.BR1</t>
@@ -333,7 +270,96 @@
     <t>User can choose type sort</t>
   </si>
   <si>
-    <t>Quyet Nguyen</t>
+    <t>HRM.FE7.FR3.1</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.2</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.3</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.4</t>
+  </si>
+  <si>
+    <t>Filter Personal Information</t>
+  </si>
+  <si>
+    <t>Sort Personal Information</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.5</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.6</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.7</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.8</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.9</t>
+  </si>
+  <si>
+    <t>HRM system allows view by Filter base on the type of information</t>
+  </si>
+  <si>
+    <t>HRM system allows sort employee 's name from A-Z or Z-A</t>
+  </si>
+  <si>
+    <t>Create new employee</t>
+  </si>
+  <si>
+    <t>HRM system allow user can create new employee when they are recruited. In this function, user will input the following information
+- Name
+- Employee's ID
+- Job Title
+- Email
+- Adress
+- Working department</t>
+  </si>
+  <si>
+    <t>HRM system allows user to view employee information, including summy of all profiles, detail information. The user will choose the employee and manage his/her information.</t>
+  </si>
+  <si>
+    <t>Manage catalog</t>
+  </si>
+  <si>
+    <t>HRM system allows user to manage catalog including create new catalog, update exsisting catalog and delete catalog</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR12.1</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR12.2</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR12.3</t>
+  </si>
+  <si>
+    <t>Add new catalog</t>
+  </si>
+  <si>
+    <t>Edit catalog</t>
+  </si>
+  <si>
+    <t>Delete catalog</t>
+  </si>
+  <si>
+    <t>HRM system allows user add new catalog by inputting following information:
+- Catalog name
+- Catalog member</t>
+  </si>
+  <si>
+    <t>HRM system allows user edit exsisting catalog including catalog name and catalog members</t>
+  </si>
+  <si>
+    <t>HRM system allows user delete exsisting catalog</t>
+  </si>
+  <si>
+    <t>Tan Tran</t>
   </si>
 </sst>
 </file>
@@ -380,7 +406,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +479,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,344 +847,363 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>57</v>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="D7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A23" s="10"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A24" s="10"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A26" s="10"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A28" s="10"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:C4"/>
@@ -1199,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,13 +1271,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,13 +1285,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1235,13 +1299,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1249,13 +1313,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,13 +1369,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1319,13 +1383,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,13 +1397,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,13 +1411,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,7 +1549,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1511,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
@@ -1532,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="17400" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Requirements" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funtional Requirements'!$A$4:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -230,15 +230,9 @@
     <t>HRM.FE7.FR4.BR1</t>
   </si>
   <si>
-    <t>HRD can choose subject to view.</t>
-  </si>
-  <si>
     <t>HRM.FE7.FR5.1.BR1</t>
   </si>
   <si>
-    <t>User can choose subject to seach</t>
-  </si>
-  <si>
     <t>HRM.FE7.FR6.BR1</t>
   </si>
   <si>
@@ -254,10 +248,6 @@
     <t>HRM.FE7.FR8.BR1</t>
   </si>
   <si>
-    <t>System notice for user about information before
- 2-3 weeks</t>
-  </si>
-  <si>
     <t>HRM.FE7.FR9.BR1</t>
   </si>
   <si>
@@ -265,9 +255,6 @@
   </si>
   <si>
     <t>HRM.FE7.FR10.BR1</t>
-  </si>
-  <si>
-    <t>User can choose type sort</t>
   </si>
   <si>
     <t>HRM.FE7.FR3.1</t>
@@ -361,12 +348,25 @@
   <si>
     <t>Tan Tran</t>
   </si>
+  <si>
+    <t>Function must have list for user choose.</t>
+  </si>
+  <si>
+    <t>System must notice for user about information before
+ 2-3 weeks</t>
+  </si>
+  <si>
+    <t>Function must have list for user choose to view</t>
+  </si>
+  <si>
+    <t>Function must have list for user choose to search</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,9 +477,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,7 +582,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -617,7 +616,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,14 +791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
@@ -810,30 +808,30 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,63 +848,63 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>41</v>
@@ -918,12 +916,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:5">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>33</v>
@@ -935,12 +933,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>37</v>
@@ -952,12 +950,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>43</v>
@@ -969,12 +967,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>44</v>
@@ -986,12 +984,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>47</v>
@@ -1003,12 +1001,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
@@ -1020,186 +1018,186 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:5">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" ht="105">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1216,14 +1214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
@@ -1232,27 +1230,27 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1330,97 +1328,97 @@
         <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1428,7 +1426,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1436,7 +1434,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1444,7 +1442,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1452,7 +1450,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1460,7 +1458,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1468,7 +1466,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1476,7 +1474,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1484,7 +1482,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1492,7 +1490,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1500,7 +1498,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1508,7 +1506,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1516,7 +1514,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1533,41 +1531,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1591,7 +1589,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1601,7 +1599,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1609,7 +1607,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1617,7 +1615,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1625,7 +1623,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1633,7 +1631,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1641,7 +1639,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1649,7 +1647,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1657,7 +1655,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1665,7 +1663,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1673,7 +1671,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1681,7 +1679,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1689,7 +1687,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1697,7 +1695,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1705,7 +1703,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1713,7 +1711,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1721,7 +1719,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1729,7 +1727,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1737,7 +1735,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1745,7 +1743,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1753,7 +1751,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1761,7 +1759,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1769,7 +1767,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1786,14 +1784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="37.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1801,12 +1799,12 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1834,7 +1832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1848,7 +1846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1859,7 +1857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1881,7 +1879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1892,7 +1890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1903,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>8</v>
       </c>

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="17400" windowHeight="8505"/>
@@ -19,8 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Quyet</author>
+  </authors>
+  <commentList>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quyet:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dinh ra chu de de search</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>Description</t>
   </si>
@@ -361,12 +395,21 @@
   <si>
     <t>Function must have list for user choose to search</t>
   </si>
+  <si>
+    <t>Print data</t>
+  </si>
+  <si>
+    <t>HRM allows  Users print Informations</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR3.10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,12 +420,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -404,6 +441,25 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -464,33 +520,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,6 +638,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -616,6 +673,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -791,14 +849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
@@ -808,7 +866,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -817,21 +875,21 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -848,7 +906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -865,7 +923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -882,7 +940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -899,7 +957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -916,7 +974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -933,7 +991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -950,7 +1008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -967,7 +1025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -984,7 +1042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -1001,7 +1059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -1018,7 +1076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -1035,168 +1093,174 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="10">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="105">
-      <c r="A18" s="10">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10">
-        <v>15</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>101</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1210,18 +1274,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
@@ -1230,7 +1295,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -1238,19 +1303,19 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1278,7 +1343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1292,7 +1357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -1306,7 +1371,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -1320,7 +1385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1334,7 +1399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -1348,7 +1413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -1362,7 +1427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -1376,7 +1441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -1390,7 +1455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -1404,7 +1469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -1418,7 +1483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1426,7 +1491,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1434,7 +1499,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1442,7 +1507,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1450,7 +1515,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1458,7 +1523,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1466,7 +1531,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1474,7 +1539,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1482,7 +1547,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1490,7 +1555,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1498,7 +1563,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1506,7 +1571,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1514,7 +1579,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1531,21 +1596,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
@@ -1553,19 +1618,19 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1589,7 +1654,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1599,7 +1664,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1607,7 +1672,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1615,7 +1680,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1623,7 +1688,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1631,7 +1696,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1639,7 +1704,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1647,7 +1712,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1655,7 +1720,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1663,7 +1728,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1671,7 +1736,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1679,7 +1744,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1687,7 +1752,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1695,7 +1760,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1703,7 +1768,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1711,7 +1776,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1719,7 +1784,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1727,7 +1792,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1735,7 +1800,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1743,7 +1808,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1751,7 +1816,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1759,7 +1824,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1767,7 +1832,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1784,14 +1849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="37.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1799,12 +1864,12 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1832,7 +1897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1846,7 +1911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1857,7 +1922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1868,7 +1933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1879,7 +1944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1890,7 +1955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1901,7 +1966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="152">
   <si>
     <t>Description</t>
   </si>
@@ -403,6 +403,126 @@
   </si>
   <si>
     <t>HRM.FE7.FR3.10</t>
+  </si>
+  <si>
+    <t>Manage probation</t>
+  </si>
+  <si>
+    <t>Manage position</t>
+  </si>
+  <si>
+    <t>Manage profile</t>
+  </si>
+  <si>
+    <t>Manage family relationship</t>
+  </si>
+  <si>
+    <t>Manage task</t>
+  </si>
+  <si>
+    <t>Manage supported people</t>
+  </si>
+  <si>
+    <t>Manage detailed information</t>
+  </si>
+  <si>
+    <t>Manage extended information</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.1</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.2</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.3</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.4</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.5</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.6</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.7</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.8</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.9</t>
+  </si>
+  <si>
+    <t>Manage employee history</t>
+  </si>
+  <si>
+    <t>Manage wage progress</t>
+  </si>
+  <si>
+    <t>Manage reward &amp; penalty</t>
+  </si>
+  <si>
+    <t>Manage Facilitate</t>
+  </si>
+  <si>
+    <t>Manage training</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.10</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.11</t>
+  </si>
+  <si>
+    <t>Create new HR</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to record the information of this staff before working in Van Lang University.</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to record the information about the process of work this staff at the working place</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to keep track of changing in the position and academic title of the staff</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to keep track of changing in wage of the staff at the Van Lang University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow the HRM staff to record the process of reward or penalty of the staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow the HRM staff to record the providing the facilitates for the staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow the HRM staff to record the updating about the change in profile of the staff </t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to record the information that related to the course, result of training…</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to keep track of probation process of the staff</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to record the number of supported people, for the purpose of the family allowances</t>
+  </si>
+  <si>
+    <t>HRM.FE7.FR2.12</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff manage all staff/lecture information; and user can add, update, fix, view this information</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff manage all staff/lecture extended information; and user can add, update, fix, view this information</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff manage family relationship of staff/lecture and record related information.</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff create new information about staff/lecture</t>
   </si>
 </sst>
 </file>
@@ -462,7 +582,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +607,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -511,11 +637,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,6 +688,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,47 +1370,250 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+    <row r="24" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="9">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:C4"/>
@@ -1283,7 +1631,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +2201,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="17400" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="17400" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Business Rule" sheetId="2" r:id="rId2"/>
     <sheet name="Use Case" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="System Features" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funtional Requirements'!$A$4:$C$4</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
   <si>
     <t>Description</t>
   </si>
@@ -37,9 +38,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>System Feature</t>
-  </si>
-  <si>
     <t>HRM.Fe1</t>
   </si>
   <si>
@@ -70,15 +68,6 @@
     <t>Recruitment Management</t>
   </si>
   <si>
-    <t>Manage HRM system, include user management, authentication, configuration, etc. This feature will be hiden and filtered by users' permissions. Only adiministrater is allowed to use this feature</t>
-  </si>
-  <si>
-    <t>Take responsible for managing recruitment process. It includes interviewing, evaluating, managing probation, etc. This function will store and provide a promotion paper for selected or selective candidates for rector to choose and confirm. In addition, it will interact with Personal Information Management and Income Management</t>
-  </si>
-  <si>
-    <t>Employee Labour Contract Management</t>
-  </si>
-  <si>
     <t>Insurance Information Management</t>
   </si>
   <si>
@@ -94,9 +83,6 @@
     <t>Payroll Management</t>
   </si>
   <si>
-    <t>View personal information</t>
-  </si>
-  <si>
     <t>Notification</t>
   </si>
   <si>
@@ -128,9 +114,6 @@
   </si>
   <si>
     <t>Loc Phan</t>
-  </si>
-  <si>
-    <t>HRM system allows user to view employee information, including summy of all profiles, detail information. The user will choose the employee and manage his/her information.</t>
   </si>
   <si>
     <t>Manage catalog</t>
@@ -144,12 +127,6 @@
   <si>
     <t>System must notice for user about information before
  2-3 weeks</t>
-  </si>
-  <si>
-    <t>Print data</t>
-  </si>
-  <si>
-    <t>HRM allows  Users print Informations</t>
   </si>
   <si>
     <t>Manage probation</t>
@@ -309,12 +286,6 @@
     <t>FR5</t>
   </si>
   <si>
-    <t>FR6</t>
-  </si>
-  <si>
-    <t>FR7</t>
-  </si>
-  <si>
     <t xml:space="preserve">General (ID 
 regulation) </t>
   </si>
@@ -385,13 +356,80 @@
   </si>
   <si>
     <t>BR11</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Manage HRM system; include user management, authentication, configuration, etc. This feature will be hidden and filtered by users'</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Take responsible for managing recruitment process. It includes interviewing, evaluating, managing probation, etc. This function will store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal </t>
+  </si>
+  <si>
+    <t>Employee Labor Contract Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply information about contract:salary ratio, class, grade… Beside this feature help managing other problem (contract date, staff name…) </t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Collect and synthesis information about type insurances, and manage premium. Beside, this feature base on salary table to update type insurance of staff, lectures.</t>
+  </si>
+  <si>
+    <t>Synthesis information about work of staff, lectures, discipline, reward. And assessments will be updated in end of year. From this assessments help to count salary.</t>
+  </si>
+  <si>
+    <t>Receive information about staff from Personal Information Management to manage working day, working hour. And supply these to count salary</t>
+  </si>
+  <si>
+    <r>
+      <t>It’s a big feature. It will supply information for all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> other features. And Employee Labor Contract Management feature update information of other features to management.</t>
+    </r>
+  </si>
+  <si>
+    <t>Report some information or all information about staff, lectures, salary…</t>
+  </si>
+  <si>
+    <r>
+      <t>High</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>System Features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +468,48 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +528,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3DFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -487,16 +571,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,9 +681,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,9 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,11 +703,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,44 +1057,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="121.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -910,311 +1110,279 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="E16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="E17" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="13" customFormat="1">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="13" customFormat="1" ht="30">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1">
-      <c r="A19" s="12">
-        <v>15</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="30">
-      <c r="A20" s="12">
-        <v>16</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="14" customFormat="1">
-      <c r="A21" s="12">
-        <v>17</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" ht="30">
-      <c r="A22" s="12">
-        <v>18</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>27</v>
+      <c r="C20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1231,213 +1399,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>26</v>
+      <c r="D4" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5">
+      <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45">
+      <c r="A9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90">
+      <c r="A11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="47.25">
+      <c r="A12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63">
+      <c r="A13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5">
-      <c r="A8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90">
-      <c r="A11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="47.25">
-      <c r="A12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="63">
-      <c r="A13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>35</v>
+      <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1624,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,24 +1635,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -1494,207 +1662,207 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1706,134 +1874,183 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="37.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:4" ht="24" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64.5" thickTop="1" thickBot="1">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63.75" thickBot="1">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75" thickBot="1">
+      <c r="A5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" ht="63.75" thickBot="1">
+      <c r="A8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63.75" thickBot="1">
+      <c r="A9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="63.75" thickBot="1">
+      <c r="A10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B11" s="32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="17400" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="17400" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Requirements" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Assessment Management</t>
   </si>
   <si>
-    <t>Attendance Tracking Management</t>
-  </si>
-  <si>
     <t>Personal Information Management</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>Manage HRM system; include user management, authentication, configuration, etc. This feature will be hidden and filtered by users'</t>
   </si>
   <si>
     <t>High</t>
@@ -548,6 +542,12 @@
   </si>
   <si>
     <t>UC.PIM.3.3</t>
+  </si>
+  <si>
+    <t>Employee Labor Management</t>
+  </si>
+  <si>
+    <t>Manage HRM system; include user management, authentication, configuration, etc. This feature will be hidden and filtered by users' permission</t>
   </si>
 </sst>
 </file>
@@ -821,6 +821,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,44 +857,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,27 +1193,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,16 +1254,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,16 +1271,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,16 +1288,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,16 +1305,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,16 +1322,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,16 +1339,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1373,16 +1373,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1390,16 +1390,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,16 +1407,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,16 +1424,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,16 +1441,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1458,16 +1458,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1475,16 +1475,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1492,16 +1492,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1532,199 +1532,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>46</v>
+      <c r="B14" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1754,24 +1754,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1781,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,13 +1792,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,13 +1806,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,13 +1820,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1848,13 +1848,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,13 +1862,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,13 +1876,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,13 +1890,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +1904,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +1918,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,13 +1932,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,13 +1946,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,13 +1960,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,13 +1974,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,13 +1988,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,13 +2002,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,13 +2016,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,13 +2030,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,13 +2044,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,13 +2058,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,143 +2122,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="31" t="s">
+    <row r="4" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="34" t="s">
+    <row r="5" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="C5" s="27" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>119</v>
+      <c r="C6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="D10" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="17400" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="17400" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Requirements" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funtional Requirements'!$A$4:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
   <si>
     <t>Description</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Manage position</t>
   </si>
   <si>
-    <t>Manage profile</t>
-  </si>
-  <si>
     <t>Manage family relationship</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Manage wage progress</t>
   </si>
   <si>
-    <t>Manage reward &amp; penalty</t>
-  </si>
-  <si>
     <t>Manage Facilitate</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
   </si>
   <si>
     <t>Allow the HRM staff to keep track of changing in wage of the staff at the Van Lang University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow the HRM staff to record the process of reward or penalty of the staff </t>
   </si>
   <si>
     <t xml:space="preserve">Allow the HRM staff to record the providing the facilitates for the staff </t>
@@ -214,9 +205,6 @@
  update it in system</t>
   </si>
   <si>
-    <t>Functional</t>
-  </si>
-  <si>
     <t>Allow the HRM staff create new information about staff/lecture
 HRM system allows user to import personal information from excel file, helps users to transfer all their current data (excel files) to proposed system's data
 HRM system allows user to export employee information following users' defined conditions into excel or doc</t>
@@ -233,11 +221,6 @@
   </si>
   <si>
     <t>BR3</t>
-  </si>
-  <si>
-    <t>Create new HR
- + Import personal information
- +Export information</t>
   </si>
   <si>
     <t xml:space="preserve">General (log in 
@@ -262,17 +245,10 @@
     <t>System must  supply add,edit catalog for user</t>
   </si>
   <si>
-    <t>General (Change)</t>
-  </si>
-  <si>
     <t>When HRD staff update and fix information (detail information,
  extend information, profile….) must be logged.</t>
   </si>
   <si>
-    <t>Manage reward 
-&amp; penalty</t>
-  </si>
-  <si>
     <t>Assessment management do once a year, and HRD staff 
 must update information about reward.</t>
   </si>
@@ -316,9 +292,6 @@
   </si>
   <si>
     <t>Tung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Project - Research </t>
   </si>
   <si>
     <t>Manage Profile</t>
@@ -548,6 +521,106 @@
   </si>
   <si>
     <t>Manage HRM system; include user management, authentication, configuration, etc. This feature will be hidden and filtered by users' permission</t>
+  </si>
+  <si>
+    <t>Ghi lại các giấy tờ quyết định, scan,…Ví dụ như tuyển dụng thành công thì có giấy tờ xác nhận hoặc mục check xác nhận</t>
+  </si>
+  <si>
+    <t>Nhân viên cần có chứng chỉ: giáo sư, phó giáo sư</t>
+  </si>
+  <si>
+    <t>Quản lý trang thiết bị: ghi lại thời gian sử dụng thiết bị và các giấy tờ sử dụng, giấy tờ cho mượn (hệ thống ghi nhận lại các giấy tờ đó như thế nào?)</t>
+  </si>
+  <si>
+    <t>Quản lý đào tạo: cập nhật thông tin bằng cấp, sau đó dựa vào đó để xét lương</t>
+  </si>
+  <si>
+    <t>Ngoài file excel còn file nào khác?</t>
+  </si>
+  <si>
+    <t>Báo cáo: hạn hợp đồng, TG1, TG2, hạn sử dụng trang thiết bị???</t>
+  </si>
+  <si>
+    <t>Manage facilitate</t>
+  </si>
+  <si>
+    <t>Manage reward 
+&amp; manage discipline</t>
+  </si>
+  <si>
+    <t>General (change)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Science Research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new information is not empty value </t>
+  </si>
+  <si>
+    <t>Quản lý khen thưởng và kỉ luật: xử lí thông tin 1 năm thì cập nhật vào ql đánh giá. Hỏi cần phần mềm làm sao chỗ này</t>
+  </si>
+  <si>
+    <t>Functional concerned</t>
+  </si>
+  <si>
+    <t>Create new HR
+ + Import personal information
+ + Export information</t>
+  </si>
+  <si>
+    <t>Manage working progress</t>
+  </si>
+  <si>
+    <t>FR.PIM.2.12</t>
+  </si>
+  <si>
+    <t>FR.PIM.2.13</t>
+  </si>
+  <si>
+    <t>FR.PIM.2.14</t>
+  </si>
+  <si>
+    <t>FR.PIM.2.15</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to manage Army Rank information</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to manage Union Task information</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to manage Labor Union information</t>
+  </si>
+  <si>
+    <t>Allow the HRM staff to manage Communist Party Task information</t>
+  </si>
+  <si>
+    <t>Nhung Huynh</t>
+  </si>
+  <si>
+    <t>Manage army rank</t>
+  </si>
+  <si>
+    <t>Manage labor union</t>
+  </si>
+  <si>
+    <t>Manage union task</t>
+  </si>
+  <si>
+    <t>Manage communist party task</t>
+  </si>
+  <si>
+    <t>Manage profile
++ Manage project
++ Manage curriculum
++ Manage article
++ Manage thesis guidance</t>
+  </si>
+  <si>
+    <t>Manage reward and discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow the HRM staff to record the process of reward or discipline of the staff </t>
   </si>
 </sst>
 </file>
@@ -627,7 +700,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3DFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,9 +867,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,15 +921,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +961,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,27 +1293,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1237,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>27</v>
@@ -1254,13 +1354,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>27</v>
@@ -1271,13 +1371,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>27</v>
@@ -1288,13 +1388,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>27</v>
@@ -1305,13 +1405,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>27</v>
@@ -1322,13 +1422,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>27</v>
@@ -1339,13 +1439,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>27</v>
@@ -1356,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
@@ -1373,30 +1473,30 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>125</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>27</v>
@@ -1407,13 +1507,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>27</v>
@@ -1424,13 +1524,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>27</v>
@@ -1441,66 +1541,134 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>63</v>
+        <v>169</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>15</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="11" t="s">
+    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="13" t="s">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1516,185 +1684,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>74</v>
+      <c r="C7" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E8" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>76</v>
+      <c r="B12" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>45</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>23</v>
@@ -1702,36 +1885,52 @@
       <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
+      <c r="E14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>19</v>
-      </c>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1742,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,24 +1953,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1792,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,13 +2005,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,13 +2019,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1848,13 +2047,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,13 +2061,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,13 +2075,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +2103,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +2117,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,13 +2131,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,13 +2145,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,13 +2159,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,13 +2173,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,13 +2187,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,13 +2201,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,13 +2215,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,13 +2229,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,13 +2243,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,13 +2257,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,143 +2321,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="D6" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="D8" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="D9" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D10" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="D11" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
+++ b/trunk/Requirement Management/Software Requirement Specification/[HRM]Funtional Requirement and Business Rule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="17400" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="17400" windowHeight="8385" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Requirements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="185">
   <si>
     <t>Description</t>
   </si>
@@ -288,18 +288,9 @@
     <t>Manage Detail Information</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Tung</t>
   </si>
   <si>
-    <t>Manage Profile</t>
-  </si>
-  <si>
-    <t>Manage Document - Curriculum</t>
-  </si>
-  <si>
     <t>Manage Article</t>
   </si>
   <si>
@@ -340,9 +331,6 @@
   </si>
   <si>
     <t>Manage Employee History</t>
-  </si>
-  <si>
-    <t>Manage Extend Information</t>
   </si>
   <si>
     <t>System Features</t>
@@ -457,66 +445,6 @@
     <t>FR.PIM.5</t>
   </si>
   <si>
-    <t>UC.PIM.3.1</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.1</t>
-  </si>
-  <si>
-    <t>UC.PIM.03.2.2</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.1</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.2</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.3</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.4</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.5</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.6</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.6.1</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.6.2</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.6.3</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.6.4</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.7</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.8</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.9</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.10</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.2.2.11</t>
-  </si>
-  <si>
-    <t>UC.PIM.3.3</t>
-  </si>
-  <si>
     <t>Employee Labor Management</t>
   </si>
   <si>
@@ -549,9 +477,6 @@
   </si>
   <si>
     <t>General (change)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Science Research </t>
   </si>
   <si>
     <t xml:space="preserve">Create new information is not empty value </t>
@@ -621,6 +546,81 @@
   </si>
   <si>
     <t xml:space="preserve">Allow the HRM staff to record the process of reward or discipline of the staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Research </t>
+  </si>
+  <si>
+    <t>UC.PIM03.1</t>
+  </si>
+  <si>
+    <t>UC.PIM03.2</t>
+  </si>
+  <si>
+    <t>UC.PIM03.3</t>
+  </si>
+  <si>
+    <t>UC.PIM03.4</t>
+  </si>
+  <si>
+    <t>UC.PIM03.5</t>
+  </si>
+  <si>
+    <t>UC.PIM03.6</t>
+  </si>
+  <si>
+    <t>UC.PIM03.7.1</t>
+  </si>
+  <si>
+    <t>Manage Curriculum</t>
+  </si>
+  <si>
+    <t>UC.PIM03.7.2</t>
+  </si>
+  <si>
+    <t>UC.PIM03.7.3</t>
+  </si>
+  <si>
+    <t>UC.PIM03.7.4</t>
+  </si>
+  <si>
+    <t>UC.PIM03.8</t>
+  </si>
+  <si>
+    <t>UC.PIM03.9</t>
+  </si>
+  <si>
+    <t>UC.PIM03.10</t>
+  </si>
+  <si>
+    <t>UC.PIM03.11</t>
+  </si>
+  <si>
+    <t>UC.PIM03.12</t>
+  </si>
+  <si>
+    <t>UC.PIM03.13</t>
+  </si>
+  <si>
+    <t>UC.PIM03.14</t>
+  </si>
+  <si>
+    <t>UC.PIM03.15</t>
+  </si>
+  <si>
+    <t>UC.PIM03.16</t>
+  </si>
+  <si>
+    <t>Manage Army Rank</t>
+  </si>
+  <si>
+    <t>Manage Labor Union</t>
+  </si>
+  <si>
+    <t>Manage Union Task</t>
+  </si>
+  <si>
+    <t>Manage Communist Party Task</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,33 +935,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -975,6 +948,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,27 +1295,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1337,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
@@ -1354,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -1371,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>39</v>
@@ -1388,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
@@ -1405,10 +1407,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>45</v>
@@ -1422,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
@@ -1439,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
@@ -1456,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
@@ -1473,10 +1475,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>48</v>
@@ -1490,12 +1492,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -1507,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
@@ -1524,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>32</v>
@@ -1541,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>36</v>
@@ -1558,16 +1560,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>178</v>
+        <v>144</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1575,16 +1577,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1592,16 +1594,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1609,27 +1611,27 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>167</v>
+      <c r="B22" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>142</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>59</v>
@@ -1643,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>28</v>
@@ -1660,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>19</v>
@@ -1700,29 +1702,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -1745,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1762,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1784,7 +1786,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>71</v>
@@ -1793,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1801,7 +1803,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>72</v>
@@ -1810,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1827,7 +1829,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1849,7 +1851,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>70</v>
@@ -1873,10 +1875,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1886,22 +1888,22 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="35" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1939,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,29 +1952,32 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1986,138 +1991,167 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>161</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
@@ -2125,177 +2159,258 @@
       <c r="D14" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G22" s="51"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="51"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="51"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" s="51"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H13 D30 L11:L15 I22:I26 D5:D24">
       <formula1>"None, Dang, Tung, Loc, Nguyen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2307,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2321,12 +2436,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -2339,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2350,10 +2465,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2364,10 +2479,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2375,34 +2490,34 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>109</v>
+      <c r="C6" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
@@ -2412,10 +2527,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2423,13 +2538,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2440,10 +2555,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2454,10 +2569,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
